--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed5/result_data_RandomForest.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.0645</v>
+        <v>-13.3417</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.796899999999998</v>
+        <v>4.789499999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.1831</v>
+        <v>-12.22900000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.6996</v>
+        <v>-13.4195</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -880,10 +880,10 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.871899999999998</v>
+        <v>6.826199999999997</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.5901</v>
+        <v>-11.9336</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.30140000000001</v>
+        <v>-11.72570000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.285000000000007</v>
+        <v>9.33270000000001</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,7 +964,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.338299999999996</v>
+        <v>5.300399999999996</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.26699999999999</v>
+        <v>-12.2312</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.339600000000003</v>
+        <v>6.499400000000005</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1188,10 +1188,10 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.809900000000005</v>
+        <v>5.719300000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>-14.32829999999999</v>
+        <v>-12.5396</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.329899999999998</v>
+        <v>5.430599999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.098599999999996</v>
+        <v>5.343699999999995</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.254699999999997</v>
+        <v>5.256099999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.155300000000008</v>
+        <v>5.169800000000007</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>4.893599999999995</v>
+        <v>5.074699999999998</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.19880000000001</v>
+        <v>-12.1676</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1818,10 +1818,10 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.160499999999997</v>
+        <v>6.036499999999997</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.22520000000001</v>
+        <v>-11.96600000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.8782</v>
+        <v>-12.9108</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.583399999999997</v>
+        <v>9.438800000000004</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
